--- a/GWR_output_summary.xlsx
+++ b/GWR_output_summary.xlsx
@@ -5,36 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerpaladino/Documents/ISU/Thesis/Mars_regolith_hydration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tylerpaladino/Documents/ISU/Thesis/Mars_regolith_hydration/LMD_MATHAM_Utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11EE90-6F48-0D4C-B2DB-B4D9A5CA767E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3660A3-FA6D-3E4E-A51C-B2BFA5A8F2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="33600" windowHeight="18740" activeTab="1" xr2:uid="{1C40D669-6131-9B4E-BD0D-F480D186DC74}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" activeTab="1" xr2:uid="{1C40D669-6131-9B4E-BD0D-F480D186DC74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$17:$A$28</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$17:$B$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$17:$A$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$17:$B$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$A$17:$A$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$B$17:$B$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -961,10 +949,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.76042915151828439"/>
-          <c:y val="0.22105772604629212"/>
-          <c:w val="0.17266869985239303"/>
-          <c:h val="0.19280278641295226"/>
+          <c:x val="0.56229573189418702"/>
+          <c:y val="0.1343075410004613"/>
+          <c:w val="0.3620575971940605"/>
+          <c:h val="0.29806490232418931"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -987,7 +975,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -1074,7 +1062,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" i="0">
+              <a:rPr lang="en-US" sz="1400" b="1" i="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1089,8 +1077,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1973064492852033"/>
-          <c:y val="6.893083035417058E-2"/>
+          <c:x val="0.17980771703825635"/>
+          <c:y val="8.0871568258743892E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1825,10 +1813,24 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1842,8 +1844,53 @@
                 </a:solidFill>
                 <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
               </a:rPr>
-              <a:t>15000 km Bandwidth</a:t>
+              <a:t>Individual Volcano</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>R</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="30000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> at 15,000 km Bandwidth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1851,8 +1898,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.36108645763955788"/>
-          <c:y val="9.0848041048902414E-2"/>
+          <c:x val="0.24226385667135264"/>
+          <c:y val="8.1562613211847781E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2224,6 +2271,7 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2245,17 +2293,61 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>10,000</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Individual Volcano </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> km Bandwidth</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>R</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="30000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> at 10,000 km Bandwidth</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22241447944006998"/>
+          <c:y val="7.6946267133275015E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2264,26 +2356,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2295,15 +2367,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2396,7 +2459,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7F7-BB4F-B3F6-8E38B9C9BEFF}"/>
+              <c16:uniqueId val="{00000004-2D3C-1143-8FA1-853CCCC7FB67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2408,69 +2471,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="983838320"/>
-        <c:axId val="164029551"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="1908397680"/>
+        <c:axId val="1635155200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="983838320"/>
+        <c:axId val="1908397680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="164029551"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="164029551"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2491,8 +2502,143 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1635155200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1635155200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>R</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="30000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
             <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2501,14 +2647,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Myriad Pro Cond" panose="020B0506030403020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -2516,43 +2659,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="983838320"/>
+        <c:crossAx val="1908397680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="F0F0F0"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -2613,46 +2733,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3711,523 +3791,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>378766</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:colOff>353460</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>823267</xdr:colOff>
+      <xdr:colOff>803548</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>196547</xdr:rowOff>
+      <xdr:rowOff>139681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4254,16 +3831,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>462222</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>351990</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>760</xdr:rowOff>
+      <xdr:rowOff>130501</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>375970</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>119151</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>804104</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4295,12 +3872,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11112</cdr:x>
-      <cdr:y>0.28108</cdr:y>
+      <cdr:x>0.22254</cdr:x>
+      <cdr:y>0.41884</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.88858</cdr:x>
-      <cdr:y>0.28108</cdr:y>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.41884</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -4315,8 +3892,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
-          <a:off x="628967" y="772705"/>
-          <a:ext cx="4400514" cy="0"/>
+          <a:off x="1259638" y="1177565"/>
+          <a:ext cx="4400635" cy="0"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -4355,15 +3932,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>170622</xdr:colOff>
+      <xdr:colOff>170621</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>617882</xdr:colOff>
+      <xdr:colOff>593954</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>189948</xdr:rowOff>
+      <xdr:rowOff>197679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4391,15 +3968,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>182034</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4234</xdr:rowOff>
+      <xdr:colOff>172150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>605367</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
+      <xdr:colOff>595483</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>80434</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5008,12 +4585,298 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88EE518-980B-0348-8D4F-8A90F28553FD}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="J23" zoomScale="224" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="K15" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5875,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6700DC-D731-4746-9AE5-E9C0C6ABFFC8}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
